--- a/output/fit_clients/fit_round_470.xlsx
+++ b/output/fit_clients/fit_round_470.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1876461091.04428</v>
+        <v>1720074723.03073</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1144381655752522</v>
+        <v>0.08945170246690776</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03879739795357657</v>
+        <v>0.03505164136336154</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>938230524.5435761</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1992965960.761558</v>
+        <v>1660215324.496644</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1447198403573706</v>
+        <v>0.1341504140810405</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04301809441551364</v>
+        <v>0.03148835625443416</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>996483019.3680272</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3635642884.945507</v>
+        <v>3930048530.448089</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1328848622308187</v>
+        <v>0.1498327215069709</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02863383944665095</v>
+        <v>0.02705751015270293</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>170</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1817821430.85284</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3664904610.304251</v>
+        <v>2848043118.55619</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09082837530600257</v>
+        <v>0.07353507999931903</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03411049592485166</v>
+        <v>0.04765900213803582</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>173</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1832452331.008651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2423342007.698643</v>
+        <v>2839622844.862959</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1364180593947647</v>
+        <v>0.141299518756778</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0434368641844582</v>
+        <v>0.04318673596239098</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>89</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1211670987.650008</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3034816443.10951</v>
+        <v>2277609710.829693</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09892877742764733</v>
+        <v>0.07048448530750834</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03663726087546003</v>
+        <v>0.03928785823350783</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>147</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1517408183.087773</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2718276235.684844</v>
+        <v>3965809213.572475</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1362162696170049</v>
+        <v>0.2003034404887116</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02416440963658256</v>
+        <v>0.03328323039970124</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>150</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1359138146.574732</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2273651888.411759</v>
+        <v>1570029161.222178</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1518948403528456</v>
+        <v>0.1242846482287732</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0245601224753011</v>
+        <v>0.03532259818933147</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1136825932.876697</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4606998929.490102</v>
+        <v>4710657454.008629</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1881319223580427</v>
+        <v>0.1874471489124655</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04420785024447025</v>
+        <v>0.04086101637534304</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>198</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2303499533.682165</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4158062544.292959</v>
+        <v>3033210544.252386</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1443076243553968</v>
+        <v>0.1903303171423804</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04755433952800994</v>
+        <v>0.04196367428900389</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>194</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2079031295.833246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2418923380.745557</v>
+        <v>3085039894.930645</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1262510913812675</v>
+        <v>0.1369135686827337</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03407351706211729</v>
+        <v>0.0479092210113684</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>159</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1209461655.204831</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5247285122.490025</v>
+        <v>3846829061.85491</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08550322822502274</v>
+        <v>0.07799362368372813</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01929274041102036</v>
+        <v>0.02888572131750327</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>158</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2623642552.844705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3671489990.72651</v>
+        <v>3655420633.952088</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1379661310344758</v>
+        <v>0.1336873979543417</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04212148763771825</v>
+        <v>0.03335935335227797</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>150</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1835744981.197246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1432674117.826028</v>
+        <v>1535146907.163424</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08834519495019358</v>
+        <v>0.07476161660036597</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03198903029654826</v>
+        <v>0.04447610565657517</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>716337129.1635841</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2427500212.888655</v>
+        <v>1758709209.788697</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1071695154771422</v>
+        <v>0.09755947951071112</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03729868541486309</v>
+        <v>0.04666752774131245</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>96</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1213750143.752915</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5141849538.941188</v>
+        <v>5065801647.412488</v>
       </c>
       <c r="F17" t="n">
-        <v>0.117650369842833</v>
+        <v>0.1377638967637263</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03884265411380729</v>
+        <v>0.04270214225839186</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>137</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2570924747.644173</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2791304732.48448</v>
+        <v>3717093293.102962</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1209599611024872</v>
+        <v>0.1605656555862549</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02480922974512303</v>
+        <v>0.0297981107971013</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>154</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1395652411.689162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1162640990.821825</v>
+        <v>899717284.7026846</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1485703154439412</v>
+        <v>0.1704549854483742</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02582459771854358</v>
+        <v>0.02369437795792546</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>581320564.2464124</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2570486384.972297</v>
+        <v>2220775660.250871</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1154616045607639</v>
+        <v>0.135402489965225</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02126376673099829</v>
+        <v>0.02935710716457522</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>65</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1285243158.094198</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2681316327.885479</v>
+        <v>2525600656.390124</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09191011112108445</v>
+        <v>0.09885882409830561</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03970580158403269</v>
+        <v>0.03826090905015043</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>36</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1340658134.724707</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3162549753.848492</v>
+        <v>2721331885.401163</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1274842048796098</v>
+        <v>0.1331250510211774</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04375180337650323</v>
+        <v>0.04261259714257774</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>130</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1581274928.740053</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1012440859.646433</v>
+        <v>1153482342.294641</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1815079275727935</v>
+        <v>0.1156388106353806</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03934582989028722</v>
+        <v>0.0532723909011109</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>506220497.9245408</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3214221913.547473</v>
+        <v>3301050117.263425</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09834668197671739</v>
+        <v>0.1125276312920378</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02460894019478417</v>
+        <v>0.02405092795983722</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>137</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1607110977.624742</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1003146620.790542</v>
+        <v>1140229458.215472</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0962481763176764</v>
+        <v>0.1171814958095159</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02590879269481429</v>
+        <v>0.01901123487093517</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>501573373.6947846</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>988696654.219887</v>
+        <v>1381975681.934997</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1237273337928651</v>
+        <v>0.07664228547972717</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03651249198761528</v>
+        <v>0.0334311512797999</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>494348296.4975926</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3315745164.54612</v>
+        <v>4653113379.908597</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1556374515613398</v>
+        <v>0.1271836266993029</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0242822465437437</v>
+        <v>0.02348577854053127</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>115</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1657872626.420957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3251926564.567776</v>
+        <v>3498864201.140233</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1215055281132175</v>
+        <v>0.09342327113619416</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04990310881850408</v>
+        <v>0.033395693460488</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>155</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1625963315.381078</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4219556865.163827</v>
+        <v>4797057635.312302</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1183601106661079</v>
+        <v>0.1396539404615781</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0328925743757098</v>
+        <v>0.04510464364238516</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>208</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2109778434.286474</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2163703884.794932</v>
+        <v>2180367814.304785</v>
       </c>
       <c r="F30" t="n">
-        <v>0.100755304275314</v>
+        <v>0.118091757339416</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03214679637692076</v>
+        <v>0.02652318306498334</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1081851998.497487</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1395791004.161297</v>
+        <v>906014529.3763593</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09794384248386537</v>
+        <v>0.08922440981359139</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0517720317751527</v>
+        <v>0.03238460102726683</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>697895407.4802407</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1787882424.590818</v>
+        <v>1212383471.063829</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0908588403359365</v>
+        <v>0.09895094791733802</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03177915080389274</v>
+        <v>0.03540406971369675</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>893941340.2895691</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2802857456.270873</v>
+        <v>1984961454.909419</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1813626744690405</v>
+        <v>0.1676169434127863</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03918507729896797</v>
+        <v>0.04337979148180305</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>145</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1401428740.558692</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1056747950.137008</v>
+        <v>1357935756.240518</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08685345778219326</v>
+        <v>0.07952309428367026</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02531812609226947</v>
+        <v>0.02757275675136533</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>528374003.6173444</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>859911123.060545</v>
+        <v>1226464793.828765</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1037663268002955</v>
+        <v>0.0951196926072345</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03752133840487978</v>
+        <v>0.04467701911432199</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>429955610.8348321</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2429862989.847006</v>
+        <v>3154021059.987189</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1136263229460057</v>
+        <v>0.1199543246260611</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02631744297155901</v>
+        <v>0.02167892585656641</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>118</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1214931522.558833</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2589002660.389645</v>
+        <v>2717222367.911491</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1109273638483659</v>
+        <v>0.08992573084019739</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03663891355484155</v>
+        <v>0.04082231626481079</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>126</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1294501438.550258</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1485773655.554766</v>
+        <v>1392624143.210747</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1050367464184662</v>
+        <v>0.09575405059096845</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03309462400130348</v>
+        <v>0.03297492715781596</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>742886879.0631093</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1764967221.122875</v>
+        <v>2158865434.588066</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1683109844838424</v>
+        <v>0.161756857766772</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0266372687652565</v>
+        <v>0.02367216795278525</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>882483640.7896382</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1299652557.726273</v>
+        <v>1485079725.982449</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09831973093451164</v>
+        <v>0.156201541564754</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05135395348889915</v>
+        <v>0.04229048072838933</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>649826295.2379922</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2088297238.014584</v>
+        <v>2164850384.552869</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1064246789745906</v>
+        <v>0.163974045020837</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03371270925637917</v>
+        <v>0.04194839908888865</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>113</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1044148684.590605</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2836741086.54326</v>
+        <v>3615584849.60939</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1230603251356371</v>
+        <v>0.109646911053987</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02849084843974287</v>
+        <v>0.04261924954704688</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>154</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1418370492.48963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2001817712.076141</v>
+        <v>2662151343.332036</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1493224962444726</v>
+        <v>0.1731221380819658</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02547962080110488</v>
+        <v>0.02015002034717651</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>164</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1000908954.809342</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1634608562.665278</v>
+        <v>2091197074.027369</v>
       </c>
       <c r="F44" t="n">
-        <v>0.071121245691565</v>
+        <v>0.100158270900482</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02904877813292362</v>
+        <v>0.03479530196478264</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>817304314.787758</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2538229623.242899</v>
+        <v>2097438706.28682</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1278056811110705</v>
+        <v>0.1952496635890871</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03696026383480262</v>
+        <v>0.04176218006015146</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1269114856.741613</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4226508665.010464</v>
+        <v>5173182730.640104</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1220466231690193</v>
+        <v>0.1712551455163918</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03999515858050968</v>
+        <v>0.05592241879365604</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>167</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2113254315.022068</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4737568286.868579</v>
+        <v>4225487715.521699</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1296132439002951</v>
+        <v>0.1518952280364554</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05486547368259558</v>
+        <v>0.05563022358489932</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>126</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2368784184.420887</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3551570116.533376</v>
+        <v>3050516699.074303</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0687542571537744</v>
+        <v>0.06766985746887857</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03416367062767937</v>
+        <v>0.02394362787133293</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>153</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1775785118.752198</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1430906911.790932</v>
+        <v>1565417667.850437</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1964327767641216</v>
+        <v>0.1426010600600743</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03233473611717751</v>
+        <v>0.03594918500495721</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>715453498.6918169</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3762196062.807608</v>
+        <v>2895513036.58343</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1593740262211579</v>
+        <v>0.1430885088590131</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03580868495564024</v>
+        <v>0.03696102855486871</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>160</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1881098037.033219</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1327984006.307926</v>
+        <v>1340976344.178711</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1642706303307198</v>
+        <v>0.1254686605594235</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04523425735923457</v>
+        <v>0.04599209607443079</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>663992033.9885812</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4986319116.351462</v>
+        <v>5000592512.782626</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1080913415661066</v>
+        <v>0.1117629936740756</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05502166913475005</v>
+        <v>0.04783879600554011</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>194</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2493159556.628975</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3401414022.991687</v>
+        <v>2746186272.447943</v>
       </c>
       <c r="F53" t="n">
-        <v>0.174834741505248</v>
+        <v>0.1347022238014962</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03249076314985541</v>
+        <v>0.02473545496574878</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>134</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1700707016.200845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3289497292.367192</v>
+        <v>3013836221.322624</v>
       </c>
       <c r="F54" t="n">
-        <v>0.128772841534697</v>
+        <v>0.1518840155471481</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03826939762472919</v>
+        <v>0.03709178261703389</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>152</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1644748654.488055</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4659022136.052023</v>
+        <v>4356263703.099912</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1695238513210334</v>
+        <v>0.177585984608291</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02481353915681338</v>
+        <v>0.02433186615467198</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>136</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2329511072.017456</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1858854196.120849</v>
+        <v>1609238036.712754</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1373093323293209</v>
+        <v>0.1576886627895074</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03637482515161368</v>
+        <v>0.04081726153412255</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>929427087.175368</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3431522786.25685</v>
+        <v>3811883482.677629</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1828799325975107</v>
+        <v>0.1514221523449436</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02760281805133864</v>
+        <v>0.02759957961257741</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>149</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1715761433.785853</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1398691465.256955</v>
+        <v>1249519944.083035</v>
       </c>
       <c r="F58" t="n">
-        <v>0.144437106819314</v>
+        <v>0.1324661643778881</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03165122927619776</v>
+        <v>0.02818683768838941</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>699345773.0398977</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4204213544.782583</v>
+        <v>3745169145.160039</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1110646405722993</v>
+        <v>0.09047953934454386</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03899169543179661</v>
+        <v>0.03158817321655488</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>127</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2102106738.507065</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2745063028.574161</v>
+        <v>2361338328.15756</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1739705111305213</v>
+        <v>0.1246529501641618</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03096692334284314</v>
+        <v>0.02242757427375397</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>147</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1372531557.91758</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3336123880.56729</v>
+        <v>2804565293.193832</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1276775103601002</v>
+        <v>0.1755765958857021</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02666524774926145</v>
+        <v>0.03029244303926196</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>160</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1668061889.074254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1837421579.79773</v>
+        <v>1943182614.867651</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1948740642487891</v>
+        <v>0.1198139064393077</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03608011659252008</v>
+        <v>0.04388323486719618</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>918710823.6176374</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3474166347.680806</v>
+        <v>4136628960.772619</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08680520435239164</v>
+        <v>0.09433833717629923</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03297100713809977</v>
+        <v>0.04053809868030906</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>134</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1737083259.735186</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5202076059.346855</v>
+        <v>3579053102.823302</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1215656982107733</v>
+        <v>0.1573494045710693</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02259417873286055</v>
+        <v>0.02884023618000356</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>146</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2601038150.108227</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5400982282.394508</v>
+        <v>5639618015.881185</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1225721338642804</v>
+        <v>0.163035383448083</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02233929849884674</v>
+        <v>0.02571088410547508</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>168</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2700491076.188612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3756922578.162847</v>
+        <v>5090988540.977019</v>
       </c>
       <c r="F66" t="n">
-        <v>0.142744109130873</v>
+        <v>0.152121081986905</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03666515870043392</v>
+        <v>0.04410917841631874</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>138</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1878461249.646566</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2740851745.044681</v>
+        <v>2190388184.065962</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07307029333059095</v>
+        <v>0.08496594123638854</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04279355049756011</v>
+        <v>0.03115487192158754</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>150</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1370425912.752249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5234376261.461472</v>
+        <v>5685544136.360934</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1599139686037289</v>
+        <v>0.106007915875318</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04640054512708881</v>
+        <v>0.03817296745412768</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>150</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2617188201.343798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1587349636.891923</v>
+        <v>2361941071.018263</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1134884255128129</v>
+        <v>0.1282680073923701</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04689600164913342</v>
+        <v>0.04325096366727475</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>793674770.0553185</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2588881852.277613</v>
+        <v>3071712369.897366</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09467581300512516</v>
+        <v>0.09714993377180503</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0443949353164439</v>
+        <v>0.04881291027705505</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>134</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1294440876.467795</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5478905783.829451</v>
+        <v>5658092936.531021</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1272595641905119</v>
+        <v>0.1378365290496885</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02711933297815034</v>
+        <v>0.02747718620185008</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>171</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2739453033.431023</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1593279423.051488</v>
+        <v>2225082114.665871</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08298977111094452</v>
+        <v>0.08958726372257682</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03917633612453009</v>
+        <v>0.03603273906456372</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>796639723.4595389</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2492547054.708046</v>
+        <v>2284989616.319496</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1107218827766562</v>
+        <v>0.1002818987485564</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03438734464258758</v>
+        <v>0.04187730687102865</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>178</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1246273569.834585</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3871213740.274359</v>
+        <v>3036635968.644761</v>
       </c>
       <c r="F74" t="n">
-        <v>0.183475938212772</v>
+        <v>0.1549132827129529</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02740848251904836</v>
+        <v>0.0322086381434617</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>159</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1935606860.250192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1834913394.313646</v>
+        <v>2016101299.873413</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1640723026990948</v>
+        <v>0.1167583281685911</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03693796701666982</v>
+        <v>0.03650219019835314</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>917456676.8389782</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4354421735.955527</v>
+        <v>4906088265.563558</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1170343592682773</v>
+        <v>0.09151566832617281</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02556614801205546</v>
+        <v>0.02615132952540311</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2177210867.551732</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1647199078.705766</v>
+        <v>2009481417.897201</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1235491875281106</v>
+        <v>0.1341531668708614</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02883437235676602</v>
+        <v>0.02729668735889582</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>823599548.7911594</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4628448327.633611</v>
+        <v>2924035423.816339</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08838174970840729</v>
+        <v>0.09840694009445497</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04650242198372326</v>
+        <v>0.05310789662008829</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>163</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2314224084.575044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1287251943.673625</v>
+        <v>1178976221.412876</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1640734867078228</v>
+        <v>0.1681870431878018</v>
       </c>
       <c r="G79" t="n">
-        <v>0.025740662605944</v>
+        <v>0.02555012157136253</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>643625968.8707228</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4655758738.633078</v>
+        <v>5286930686.16526</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09602376533753601</v>
+        <v>0.1050175080997911</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02659498939245026</v>
+        <v>0.02615177864827519</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>105</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2327879401.413815</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3937534245.356599</v>
+        <v>4121701316.223776</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09456085801958675</v>
+        <v>0.08436413914264701</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02816584944965852</v>
+        <v>0.03016986150116311</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>110</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1968767083.600327</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4067615012.194882</v>
+        <v>4786414689.386482</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1376331685384547</v>
+        <v>0.1973296782815306</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02270077715379325</v>
+        <v>0.02923054895578104</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>164</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2033807542.104398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1737843992.036125</v>
+        <v>2303161249.227037</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1524632734934187</v>
+        <v>0.1427735403930899</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03608474790259108</v>
+        <v>0.04271508258024365</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>868921948.7497606</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1933096220.952558</v>
+        <v>2596520566.228985</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1208486437295921</v>
+        <v>0.09596637805839665</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04902118455029191</v>
+        <v>0.03332569681882336</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>7</v>
-      </c>
-      <c r="J84" t="n">
-        <v>966548125.3065299</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3028135032.805844</v>
+        <v>2428463176.078379</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1526752519877131</v>
+        <v>0.1476959689446197</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04199413641712118</v>
+        <v>0.04417660557446437</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>175</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1514067579.66137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2644164822.709464</v>
+        <v>2809711293.153814</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1478428754373426</v>
+        <v>0.1558172060016068</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01822265481893251</v>
+        <v>0.02734963518678827</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>60</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1322082528.581415</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>994761516.1172338</v>
+        <v>1420325978.828428</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1680313059755522</v>
+        <v>0.1417664300764857</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04072028643572832</v>
+        <v>0.04176351463619637</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>497380761.059417</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2773903409.864614</v>
+        <v>2941419045.762891</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1585605276945647</v>
+        <v>0.1084548075241578</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02602541571341243</v>
+        <v>0.03075948443129896</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>187</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1386951713.04548</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3244404381.607547</v>
+        <v>2286864580.735387</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1412068658862795</v>
+        <v>0.1293524134786295</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03714015397683378</v>
+        <v>0.03018368342947378</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>159</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1622202211.019438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1334478727.164299</v>
+        <v>2095429086.590256</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1167875281206489</v>
+        <v>0.08383186736698094</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03526798823561707</v>
+        <v>0.03866102670214117</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>667239312.0731331</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1713518619.643615</v>
+        <v>1374752752.092791</v>
       </c>
       <c r="F91" t="n">
-        <v>0.162780130938453</v>
+        <v>0.1842696735842667</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03830934000151476</v>
+        <v>0.05661318805324191</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>856759320.2801126</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2787792663.892304</v>
+        <v>2549258164.931398</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07911469962158033</v>
+        <v>0.0710822004616261</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04638292864509323</v>
+        <v>0.03870448428787382</v>
       </c>
       <c r="H92" t="b">
         <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>130</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1393896337.668202</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4162092390.822719</v>
+        <v>3878246507.008549</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1333037093435387</v>
+        <v>0.1264721688178875</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05049373348627487</v>
+        <v>0.04635320659449321</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>140</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2081046185.584017</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2244391183.05253</v>
+        <v>1981073577.013269</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1508099286014783</v>
+        <v>0.1084767822392757</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03715724286341072</v>
+        <v>0.02979724780306513</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1122195621.679458</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2765442711.056528</v>
+        <v>2160695005.027611</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0945337514002631</v>
+        <v>0.09743621017711022</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04776036741835918</v>
+        <v>0.03740210669780542</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>117</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1382721372.370953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1809926720.483307</v>
+        <v>2297517690.10411</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1268181089467203</v>
+        <v>0.1024811310701859</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04683499994299738</v>
+        <v>0.03770188747337388</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>904963367.5249311</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3706136523.057473</v>
+        <v>3643550029.205212</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1329657781161024</v>
+        <v>0.1722868704017768</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02639480365373656</v>
+        <v>0.02583113731832898</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>152</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1853068294.289013</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2381970396.74659</v>
+        <v>2407609808.510844</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08101446559732302</v>
+        <v>0.113742143992027</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02648087224589932</v>
+        <v>0.03068061773273204</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>127</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1190985141.162747</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2405811273.029629</v>
+        <v>2915959162.616979</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1358680232742597</v>
+        <v>0.1407715453649198</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03554066843394563</v>
+        <v>0.02530402097195216</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>148</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1202905579.408695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3140658882.487481</v>
+        <v>3922190678.368825</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1117208176516422</v>
+        <v>0.1796010569112682</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01984959302030143</v>
+        <v>0.02008923400848074</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>144</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1570329443.334187</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2438954400.405278</v>
+        <v>2448804545.398297</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1452419942307031</v>
+        <v>0.153762610555164</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03728858300510029</v>
+        <v>0.04244356284032853</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>193</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1219477215.142205</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_470.xlsx
+++ b/output/fit_clients/fit_round_470.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1720074723.03073</v>
+        <v>1803667208.802282</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08945170246690776</v>
+        <v>0.08704818164320022</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03505164136336154</v>
+        <v>0.03797604568862602</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,16 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1660215324.496644</v>
+        <v>2081303884.900939</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1341504140810405</v>
+        <v>0.1149104672132744</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03148835625443416</v>
+        <v>0.03394041854928435</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3930048530.448089</v>
+        <v>4943664539.633101</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1498327215069709</v>
+        <v>0.1249887313119334</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02705751015270293</v>
+        <v>0.0254605827035695</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2848043118.55619</v>
+        <v>3886208312.347436</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07353507999931903</v>
+        <v>0.1023556704711065</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04765900213803582</v>
+        <v>0.04417117930591556</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2839622844.862959</v>
+        <v>2826885676.969909</v>
       </c>
       <c r="F6" t="n">
-        <v>0.141299518756778</v>
+        <v>0.1101619819518919</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04318673596239098</v>
+        <v>0.04030904192329927</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2277609710.829693</v>
+        <v>3068979054.672752</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07048448530750834</v>
+        <v>0.09921760227335116</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03928785823350783</v>
+        <v>0.03094204070515582</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3965809213.572475</v>
+        <v>3868841982.5859</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2003034404887116</v>
+        <v>0.139213269399329</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03328323039970124</v>
+        <v>0.02198688926276315</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1570029161.222178</v>
+        <v>2025698872.052526</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1242846482287732</v>
+        <v>0.1498305854932155</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03532259818933147</v>
+        <v>0.02317145477384382</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4710657454.008629</v>
+        <v>3900879276.606984</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1874471489124655</v>
+        <v>0.1810832659925055</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04086101637534304</v>
+        <v>0.04640223539862894</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3033210544.252386</v>
+        <v>2863382811.931069</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1903303171423804</v>
+        <v>0.1848659453247181</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04196367428900389</v>
+        <v>0.03727938556974241</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3085039894.930645</v>
+        <v>2859753826.170543</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1369135686827337</v>
+        <v>0.1828025592941195</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0479092210113684</v>
+        <v>0.04238364424666519</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3846829061.85491</v>
+        <v>3989679317.392385</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07799362368372813</v>
+        <v>0.0615460508866049</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02888572131750327</v>
+        <v>0.02619913479714437</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3655420633.952088</v>
+        <v>3084922772.87892</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1336873979543417</v>
+        <v>0.1464203322250576</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03335935335227797</v>
+        <v>0.02943539608366712</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1535146907.163424</v>
+        <v>1572784388.880717</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07476161660036597</v>
+        <v>0.0817683504075393</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04447610565657517</v>
+        <v>0.04391823634331454</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1758709209.788697</v>
+        <v>1864590587.96822</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09755947951071112</v>
+        <v>0.09814868273021708</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04666752774131245</v>
+        <v>0.04494548882342897</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5065801647.412488</v>
+        <v>3460876763.279197</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1377638967637263</v>
+        <v>0.1336798015251641</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04270214225839186</v>
+        <v>0.03330654824518301</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3717093293.102962</v>
+        <v>3782521060.486819</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1605656555862549</v>
+        <v>0.1213345860959445</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0297981107971013</v>
+        <v>0.02852255612167274</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>899717284.7026846</v>
+        <v>1370082376.79793</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1704549854483742</v>
+        <v>0.1419611047273061</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02369437795792546</v>
+        <v>0.01950022616023807</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2220775660.250871</v>
+        <v>2492228188.444843</v>
       </c>
       <c r="F20" t="n">
-        <v>0.135402489965225</v>
+        <v>0.1598975299999374</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02935710716457522</v>
+        <v>0.02416405575485423</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2525600656.390124</v>
+        <v>2061298968.787375</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09885882409830561</v>
+        <v>0.07561730587884471</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03826090905015043</v>
+        <v>0.04577166675618092</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2721331885.401163</v>
+        <v>2738843882.841427</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1331250510211774</v>
+        <v>0.09643571369128463</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04261259714257774</v>
+        <v>0.05403411122952319</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1153482342.294641</v>
+        <v>1033371166.739431</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1156388106353806</v>
+        <v>0.1125497751473005</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0532723909011109</v>
+        <v>0.03529996972873253</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3301050117.263425</v>
+        <v>2522836620.359753</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1125276312920378</v>
+        <v>0.09459971794471483</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02405092795983722</v>
+        <v>0.03296856671012149</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1140229458.215472</v>
+        <v>996805423.9469799</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1171814958095159</v>
+        <v>0.1152980198838229</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01901123487093517</v>
+        <v>0.02510688041113346</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1381975681.934997</v>
+        <v>1026498426.528168</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07664228547972717</v>
+        <v>0.09989108205994154</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0334311512797999</v>
+        <v>0.02822691770255193</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4653113379.908597</v>
+        <v>3205988943.046066</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1271836266993029</v>
+        <v>0.131000882829392</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02348577854053127</v>
+        <v>0.01855323297141525</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3498864201.140233</v>
+        <v>3845400549.931819</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09342327113619416</v>
+        <v>0.1288899735326318</v>
       </c>
       <c r="G28" t="n">
-        <v>0.033395693460488</v>
+        <v>0.0454750558853779</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,13 +1242,13 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4797057635.312302</v>
+        <v>5219290462.678364</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1396539404615781</v>
+        <v>0.1363983001960968</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04510464364238516</v>
+        <v>0.03915625113136779</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2180367814.304785</v>
+        <v>1739113692.147893</v>
       </c>
       <c r="F30" t="n">
-        <v>0.118091757339416</v>
+        <v>0.1136142614186636</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02652318306498334</v>
+        <v>0.02907620288516812</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>906014529.3763593</v>
+        <v>972529588.7615716</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08922440981359139</v>
+        <v>0.07670054111816443</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03238460102726683</v>
+        <v>0.05222840368791433</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1212383471.063829</v>
+        <v>1722621603.823383</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09895094791733802</v>
+        <v>0.110035545486716</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03540406971369675</v>
+        <v>0.0360670834228385</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1984961454.909419</v>
+        <v>3016549914.05309</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1676169434127863</v>
+        <v>0.1740226303227546</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04337979148180305</v>
+        <v>0.05765995351189558</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1357935756.240518</v>
+        <v>1388681689.158503</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07952309428367026</v>
+        <v>0.1062483618597734</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02757275675136533</v>
+        <v>0.02412344011891534</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1226464793.828765</v>
+        <v>1199889219.31607</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0951196926072345</v>
+        <v>0.1167227655013325</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04467701911432199</v>
+        <v>0.04367863493704401</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3154021059.987189</v>
+        <v>2189139866.257833</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1199543246260611</v>
+        <v>0.1763937533187734</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02167892585656641</v>
+        <v>0.01897287236865123</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2717222367.911491</v>
+        <v>1942879442.415403</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08992573084019739</v>
+        <v>0.09462140669357284</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04082231626481079</v>
+        <v>0.02640367924064943</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1392624143.210747</v>
+        <v>1717991897.607858</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09575405059096845</v>
+        <v>0.07629334870881491</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03297492715781596</v>
+        <v>0.02852027313620696</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2158865434.588066</v>
+        <v>1647691825.091779</v>
       </c>
       <c r="F39" t="n">
-        <v>0.161756857766772</v>
+        <v>0.1412550950125423</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02367216795278525</v>
+        <v>0.02474111767171507</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1485079725.982449</v>
+        <v>1227161877.096985</v>
       </c>
       <c r="F40" t="n">
-        <v>0.156201541564754</v>
+        <v>0.1083660102457336</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04229048072838933</v>
+        <v>0.06001208295221534</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2164850384.552869</v>
+        <v>2708588955.322919</v>
       </c>
       <c r="F41" t="n">
-        <v>0.163974045020837</v>
+        <v>0.1515352084321161</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04194839908888865</v>
+        <v>0.04621398150570743</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3615584849.60939</v>
+        <v>2926596342.989377</v>
       </c>
       <c r="F42" t="n">
-        <v>0.109646911053987</v>
+        <v>0.08165301481729324</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04261924954704688</v>
+        <v>0.03906999136663839</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2662151343.332036</v>
+        <v>2492860787.268339</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1731221380819658</v>
+        <v>0.18089981612318</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02015002034717651</v>
+        <v>0.02502071064018967</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2091197074.027369</v>
+        <v>1475074850.473991</v>
       </c>
       <c r="F44" t="n">
-        <v>0.100158270900482</v>
+        <v>0.07610977035146224</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03479530196478264</v>
+        <v>0.03365775060353602</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2097438706.28682</v>
+        <v>2314360764.358908</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1952496635890871</v>
+        <v>0.1377593347526888</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04176218006015146</v>
+        <v>0.0547969695613646</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5173182730.640104</v>
+        <v>5666676709.09205</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1712551455163918</v>
+        <v>0.1141401334571744</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05592241879365604</v>
+        <v>0.03783496280780876</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4225487715.521699</v>
+        <v>3908250731.550979</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1518952280364554</v>
+        <v>0.1812068937172379</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05563022358489932</v>
+        <v>0.03860614008541142</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3050516699.074303</v>
+        <v>4474856147.786557</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06766985746887857</v>
+        <v>0.08574854730783665</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02394362787133293</v>
+        <v>0.03412156512554796</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1565417667.850437</v>
+        <v>1269316593.506001</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1426010600600743</v>
+        <v>0.1696559058272791</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03594918500495721</v>
+        <v>0.03119269577384576</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2895513036.58343</v>
+        <v>2566609964.952412</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1430885088590131</v>
+        <v>0.1249685547300943</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03696102855486871</v>
+        <v>0.05101142413830587</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1340976344.178711</v>
+        <v>1418076661.026586</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1254686605594235</v>
+        <v>0.1194287048434167</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04599209607443079</v>
+        <v>0.03946850954011351</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5000592512.782626</v>
+        <v>5296592892.419798</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1117629936740756</v>
+        <v>0.08929189315183336</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04783879600554011</v>
+        <v>0.04909046556511769</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2746186272.447943</v>
+        <v>3636272088.868379</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1347022238014962</v>
+        <v>0.1927459163193433</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02473545496574878</v>
+        <v>0.0312607754315538</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3013836221.322624</v>
+        <v>4926030722.122323</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1518840155471481</v>
+        <v>0.1249890619444077</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03709178261703389</v>
+        <v>0.04172866785511761</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4356263703.099912</v>
+        <v>4623468410.724461</v>
       </c>
       <c r="F55" t="n">
-        <v>0.177585984608291</v>
+        <v>0.1963058108743568</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02433186615467198</v>
+        <v>0.03200740843958064</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1609238036.712754</v>
+        <v>1147545625.146422</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1576886627895074</v>
+        <v>0.1575786056622045</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04081726153412255</v>
+        <v>0.04706176403513439</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3811883482.677629</v>
+        <v>2970967694.037745</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1514221523449436</v>
+        <v>0.1435493131531544</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02759957961257741</v>
+        <v>0.02341481679173245</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1249519944.083035</v>
+        <v>1276095006.560662</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1324661643778881</v>
+        <v>0.1418142194741388</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02818683768838941</v>
+        <v>0.03789605788392351</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3745169145.160039</v>
+        <v>3443970642.784803</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09047953934454386</v>
+        <v>0.1146555822710412</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03158817321655488</v>
+        <v>0.03085344221771006</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2361338328.15756</v>
+        <v>2905315075.95502</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1246529501641618</v>
+        <v>0.1678169491293983</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02242757427375397</v>
+        <v>0.02669132104101023</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2804565293.193832</v>
+        <v>2923119569.094996</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1755765958857021</v>
+        <v>0.1553324811746892</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03029244303926196</v>
+        <v>0.02112591121427917</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1943182614.867651</v>
+        <v>1617823150.980536</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1198139064393077</v>
+        <v>0.1884040943891836</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04388323486719618</v>
+        <v>0.04920703525552899</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4136628960.772619</v>
+        <v>5449305655.319275</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09433833717629923</v>
+        <v>0.08574223193858201</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04053809868030906</v>
+        <v>0.03969225740617593</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3579053102.823302</v>
+        <v>4246360412.553589</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1573494045710693</v>
+        <v>0.1487559583984734</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02884023618000356</v>
+        <v>0.03366133934084151</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5639618015.881185</v>
+        <v>3649781405.386568</v>
       </c>
       <c r="F65" t="n">
-        <v>0.163035383448083</v>
+        <v>0.1187555086131639</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02571088410547508</v>
+        <v>0.02680440211744554</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5090988540.977019</v>
+        <v>5590946076.4721</v>
       </c>
       <c r="F66" t="n">
-        <v>0.152121081986905</v>
+        <v>0.1429779861707279</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04410917841631874</v>
+        <v>0.03988181867483401</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2190388184.065962</v>
+        <v>3362425168.946767</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08496594123638854</v>
+        <v>0.09197570363367946</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03115487192158754</v>
+        <v>0.03604637131264704</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5685544136.360934</v>
+        <v>4060990333.703561</v>
       </c>
       <c r="F68" t="n">
-        <v>0.106007915875318</v>
+        <v>0.1086880607386304</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03817296745412768</v>
+        <v>0.04967578816222962</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2361941071.018263</v>
+        <v>1865860016.86325</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1282680073923701</v>
+        <v>0.1813259982253563</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04325096366727475</v>
+        <v>0.05791606644227605</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,16 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3071712369.897366</v>
+        <v>3464300525.678617</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09714993377180503</v>
+        <v>0.08505409410029084</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04881291027705505</v>
+        <v>0.03143988436772462</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5658092936.531021</v>
+        <v>4960248471.194674</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1378365290496885</v>
+        <v>0.1321736944444135</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02747718620185008</v>
+        <v>0.02964455265560552</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2225082114.665871</v>
+        <v>2201769742.774834</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08958726372257682</v>
+        <v>0.06799792323066589</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03603273906456372</v>
+        <v>0.05169178004052847</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2284989616.319496</v>
+        <v>2374749582.291078</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1002818987485564</v>
+        <v>0.09988818945971116</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04187730687102865</v>
+        <v>0.04036333237096127</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3036635968.644761</v>
+        <v>2575839529.238366</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1549132827129529</v>
+        <v>0.1818517680966134</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0322086381434617</v>
+        <v>0.0293934043852302</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2016101299.873413</v>
+        <v>2153543653.21972</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1167583281685911</v>
+        <v>0.1273446038791059</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03650219019835314</v>
+        <v>0.02486284385407982</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4906088265.563558</v>
+        <v>3355210769.97508</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09151566832617281</v>
+        <v>0.08904945252828697</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02615132952540311</v>
+        <v>0.02882637654065661</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2009481417.897201</v>
+        <v>2225858043.43319</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1341531668708614</v>
+        <v>0.1692447595909141</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02729668735889582</v>
+        <v>0.02974956656086555</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2924035423.816339</v>
+        <v>3654309060.525585</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09840694009445497</v>
+        <v>0.1324966006819994</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05310789662008829</v>
+        <v>0.05086596651372709</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1178976221.412876</v>
+        <v>1333794184.693072</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1681870431878018</v>
+        <v>0.1403037216180975</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02555012157136253</v>
+        <v>0.02720741886443032</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5286930686.16526</v>
+        <v>5253926854.511578</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1050175080997911</v>
+        <v>0.07235814054766623</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02615177864827519</v>
+        <v>0.02980821337694264</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4121701316.223776</v>
+        <v>4823112804.45593</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08436413914264701</v>
+        <v>0.129724616978132</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03016986150116311</v>
+        <v>0.02746720533165582</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4786414689.386482</v>
+        <v>5553880161.557717</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1973296782815306</v>
+        <v>0.2157740710052724</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02923054895578104</v>
+        <v>0.02513875923928243</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2303161249.227037</v>
+        <v>1595618315.565268</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1427735403930899</v>
+        <v>0.1245631274815963</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04271508258024365</v>
+        <v>0.03040540497370029</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2596520566.228985</v>
+        <v>2323996600.635163</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09596637805839665</v>
+        <v>0.08617123406506254</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03332569681882336</v>
+        <v>0.04591788868957934</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2428463176.078379</v>
+        <v>3415043750.381091</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1476959689446197</v>
+        <v>0.1591848584704935</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04417660557446437</v>
+        <v>0.03978279398926551</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2809711293.153814</v>
+        <v>2174614502.698241</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1558172060016068</v>
+        <v>0.1560509850407983</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02734963518678827</v>
+        <v>0.02283133939304581</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1420325978.828428</v>
+        <v>929708531.1908923</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1417664300764857</v>
+        <v>0.1595197188396567</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04176351463619637</v>
+        <v>0.03401765064194839</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2941419045.762891</v>
+        <v>2951839491.530576</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1084548075241578</v>
+        <v>0.1774163265989484</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03075948443129896</v>
+        <v>0.02985954603472809</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2286864580.735387</v>
+        <v>2213249399.473311</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1293524134786295</v>
+        <v>0.1470453331361826</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03018368342947378</v>
+        <v>0.03982550140394205</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2095429086.590256</v>
+        <v>2147189574.581704</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08383186736698094</v>
+        <v>0.1031560295604047</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03866102670214117</v>
+        <v>0.03467347834952457</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,16 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1374752752.092791</v>
+        <v>1589088390.775019</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1842696735842667</v>
+        <v>0.1340166256799657</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05661318805324191</v>
+        <v>0.04645257047915684</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2549258164.931398</v>
+        <v>2627916145.067681</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0710822004616261</v>
+        <v>0.08467044000630737</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03870448428787382</v>
+        <v>0.04389974212338368</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3878246507.008549</v>
+        <v>3901401264.04674</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1264721688178875</v>
+        <v>0.1250850846252038</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04635320659449321</v>
+        <v>0.0427550457831725</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1981073577.013269</v>
+        <v>2118254016.461306</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1084767822392757</v>
+        <v>0.1662019745770705</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02979724780306513</v>
+        <v>0.03452301796702865</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2160695005.027611</v>
+        <v>2085088784.317438</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09743621017711022</v>
+        <v>0.1037448537343818</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03740210669780542</v>
+        <v>0.0405548253202736</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2297517690.10411</v>
+        <v>2293105401.461935</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1024811310701859</v>
+        <v>0.1367831816177944</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03770188747337388</v>
+        <v>0.0354003520372808</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,13 +3146,13 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3643550029.205212</v>
+        <v>5314236049.214063</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1722868704017768</v>
+        <v>0.1427706628378531</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02583113731832898</v>
+        <v>0.01780043803864585</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2407609808.510844</v>
+        <v>3953583745.922693</v>
       </c>
       <c r="F98" t="n">
-        <v>0.113742143992027</v>
+        <v>0.122686935872126</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03068061773273204</v>
+        <v>0.02037536461729792</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2915959162.616979</v>
+        <v>3435081937.558402</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1407715453649198</v>
+        <v>0.1057372478291339</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02530402097195216</v>
+        <v>0.03502803316598543</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3922190678.368825</v>
+        <v>3101793253.323327</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1796010569112682</v>
+        <v>0.1306536482286853</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02008923400848074</v>
+        <v>0.02640187571505143</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2448804545.398297</v>
+        <v>2834714401.91017</v>
       </c>
       <c r="F101" t="n">
-        <v>0.153762610555164</v>
+        <v>0.188467702077683</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04244356284032853</v>
+        <v>0.04998408123402988</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_470.xlsx
+++ b/output/fit_clients/fit_round_470.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1803667208.802282</v>
+        <v>1882870680.713313</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08704818164320022</v>
+        <v>0.1124031922606749</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03797604568862602</v>
+        <v>0.04374613591538241</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2081303884.900939</v>
+        <v>1968524071.322681</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1149104672132744</v>
+        <v>0.1844468941997996</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03394041854928435</v>
+        <v>0.03120760004796748</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4943664539.633101</v>
+        <v>3746940679.235045</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1249887313119334</v>
+        <v>0.1367434832870417</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0254605827035695</v>
+        <v>0.02572165383420146</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>238</v>
+      </c>
+      <c r="J4" t="n">
+        <v>469</v>
+      </c>
+      <c r="K4" t="n">
+        <v>28.08142925486643</v>
       </c>
     </row>
     <row r="5">
@@ -570,17 +608,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3886208312.347436</v>
+        <v>3439034180.943995</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1023556704711065</v>
+        <v>0.07526396201953728</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04417117930591556</v>
+        <v>0.03298800216671641</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>198</v>
+      </c>
+      <c r="J5" t="n">
+        <v>467</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2826885676.969909</v>
+        <v>1929754307.306557</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1101619819518919</v>
+        <v>0.1447471395585542</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04030904192329927</v>
+        <v>0.0441678741854581</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3068979054.672752</v>
+        <v>3009847892.039788</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09921760227335116</v>
+        <v>0.08105051234786428</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03094204070515582</v>
+        <v>0.04284980784014715</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3868841982.5859</v>
+        <v>3964146933.978858</v>
       </c>
       <c r="F8" t="n">
-        <v>0.139213269399329</v>
+        <v>0.2001258258231655</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02198688926276315</v>
+        <v>0.02396930730331135</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>134</v>
+      </c>
+      <c r="J8" t="n">
+        <v>470</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2025698872.052526</v>
+        <v>1433317081.287792</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1498305854932155</v>
+        <v>0.1227154168811827</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02317145477384382</v>
+        <v>0.02287318175759163</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,17 +783,24 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3900879276.606984</v>
+        <v>4483166662.987287</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1810832659925055</v>
+        <v>0.167830232823323</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04640223539862894</v>
+        <v>0.0536035755558669</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>360</v>
+      </c>
+      <c r="J10" t="n">
+        <v>470</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,23 +812,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2863382811.931069</v>
+        <v>3356999090.59543</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1848659453247181</v>
+        <v>0.1554113250897695</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03727938556974241</v>
+        <v>0.03861509606942447</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>195</v>
+      </c>
+      <c r="J11" t="n">
+        <v>468</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +847,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2859753826.170543</v>
+        <v>2721030123.769466</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1828025592941195</v>
+        <v>0.163350857094638</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04238364424666519</v>
+        <v>0.05211982564218649</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +882,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3989679317.392385</v>
+        <v>4855390582.899642</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0615460508866049</v>
+        <v>0.08745843435801227</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02619913479714437</v>
+        <v>0.02101540779194723</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>244</v>
+      </c>
+      <c r="J13" t="n">
+        <v>470</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -822,17 +923,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3084922772.87892</v>
+        <v>3759858360.63868</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1464203322250576</v>
+        <v>0.1247828096415629</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02943539608366712</v>
+        <v>0.02696845539201774</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>107</v>
+      </c>
+      <c r="J14" t="n">
+        <v>470</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +952,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1572784388.880717</v>
+        <v>1674256904.630852</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0817683504075393</v>
+        <v>0.1052032211712433</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04391823634331454</v>
+        <v>0.04955465303187347</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +993,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1864590587.96822</v>
+        <v>2384591811.769377</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09814868273021708</v>
+        <v>0.1037795196424716</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04494548882342897</v>
+        <v>0.03518811841740844</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1022,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3460876763.279197</v>
+        <v>5154416116.664264</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1336798015251641</v>
+        <v>0.1714482048434398</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03330654824518301</v>
+        <v>0.04571255199171924</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>230</v>
+      </c>
+      <c r="J17" t="n">
+        <v>469</v>
+      </c>
+      <c r="K17" t="n">
+        <v>30.27345986342558</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1059,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3782521060.486819</v>
+        <v>3261964919.575995</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1213345860959445</v>
+        <v>0.1735581683156096</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02852255612167274</v>
+        <v>0.02904762923144095</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>126</v>
+      </c>
+      <c r="J18" t="n">
+        <v>470</v>
+      </c>
+      <c r="K18" t="n">
+        <v>38.41976262935918</v>
       </c>
     </row>
     <row r="19">
@@ -962,17 +1102,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1370082376.79793</v>
+        <v>952673329.740723</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1419611047273061</v>
+        <v>0.1389019119587014</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01950022616023807</v>
+        <v>0.02751045594439692</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1137,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2492228188.444843</v>
+        <v>1729781104.623125</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1598975299999374</v>
+        <v>0.1013454338304061</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02416405575485423</v>
+        <v>0.02212650972016051</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2061298968.787375</v>
+        <v>2334544329.632965</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07561730587884471</v>
+        <v>0.07691103949989762</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04577166675618092</v>
+        <v>0.02842119946163737</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1207,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2738843882.841427</v>
+        <v>2596395209.105332</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09643571369128463</v>
+        <v>0.1306558111326314</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05403411122952319</v>
+        <v>0.05217741967547284</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>137</v>
+      </c>
+      <c r="J22" t="n">
+        <v>468</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1033371166.739431</v>
+        <v>1001138543.64489</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1125497751473005</v>
+        <v>0.1236040078885042</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03529996972873253</v>
+        <v>0.03349547955240827</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1271,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2522836620.359753</v>
+        <v>2631422464.228791</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09459971794471483</v>
+        <v>0.1356536525472442</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03296856671012149</v>
+        <v>0.0364419503324206</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>150</v>
+      </c>
+      <c r="J24" t="n">
+        <v>469</v>
+      </c>
+      <c r="K24" t="n">
+        <v>21.37794810776661</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>996805423.9469799</v>
+        <v>1266617267.279249</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1152980198838229</v>
+        <v>0.1064959330879264</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02510688041113346</v>
+        <v>0.02690286623636487</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1026498426.528168</v>
+        <v>1448917716.77067</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09989108205994154</v>
+        <v>0.0792129104685259</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02822691770255193</v>
+        <v>0.02569995966419411</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1378,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3205988943.046066</v>
+        <v>2866686297.75681</v>
       </c>
       <c r="F27" t="n">
-        <v>0.131000882829392</v>
+        <v>0.1407041426427538</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01855323297141525</v>
+        <v>0.01739939528621919</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>207</v>
+      </c>
+      <c r="J27" t="n">
+        <v>469</v>
+      </c>
+      <c r="K27" t="n">
+        <v>21.46488381363972</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3845400549.931819</v>
+        <v>2937641092.075905</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1288899735326318</v>
+        <v>0.13587849548197</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0454750558853779</v>
+        <v>0.03223967427990019</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>116</v>
+      </c>
+      <c r="J28" t="n">
+        <v>464</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1456,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5219290462.678364</v>
+        <v>5790493424.720324</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1363983001960968</v>
+        <v>0.1390050183077668</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03915625113136779</v>
+        <v>0.03065972165899952</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>376</v>
+      </c>
+      <c r="J29" t="n">
+        <v>469</v>
+      </c>
+      <c r="K29" t="n">
+        <v>29.41168429889676</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1493,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1739113692.147893</v>
+        <v>2377950503.23665</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1136142614186636</v>
+        <v>0.08897369951818908</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02907620288516812</v>
+        <v>0.03147540167803378</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1528,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>972529588.7615716</v>
+        <v>1079344193.886436</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07670054111816443</v>
+        <v>0.1076059128269217</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05222840368791433</v>
+        <v>0.05175169041518428</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1722621603.823383</v>
+        <v>1540270216.803429</v>
       </c>
       <c r="F32" t="n">
-        <v>0.110035545486716</v>
+        <v>0.09902260990385794</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0360670834228385</v>
+        <v>0.02674483451090821</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3016549914.05309</v>
+        <v>2294488213.364128</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1740226303227546</v>
+        <v>0.1544735835861051</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05765995351189558</v>
+        <v>0.04864386959619772</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1388681689.158503</v>
+        <v>1455919752.592282</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1062483618597734</v>
+        <v>0.09951022590360481</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02412344011891534</v>
+        <v>0.02194109399579028</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1199889219.31607</v>
+        <v>1060117789.907496</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1167227655013325</v>
+        <v>0.09660051725471447</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04367863493704401</v>
+        <v>0.03806841733057741</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2189139866.257833</v>
+        <v>2531252722.205342</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1763937533187734</v>
+        <v>0.1465714576105773</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01897287236865123</v>
+        <v>0.01809940913343286</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1738,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1942879442.415403</v>
+        <v>2548386411.943738</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09462140669357284</v>
+        <v>0.1106410440250641</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02640367924064943</v>
+        <v>0.03629158184067389</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1717991897.607858</v>
+        <v>1632366195.217431</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07629334870881491</v>
+        <v>0.07511971793166712</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02852027313620696</v>
+        <v>0.02896685511376288</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1647691825.091779</v>
+        <v>1414695376.758209</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1412550950125423</v>
+        <v>0.1658537100916316</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02474111767171507</v>
+        <v>0.02092108597159445</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1227161877.096985</v>
+        <v>1669061743.833087</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1083660102457336</v>
+        <v>0.09966032532313489</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06001208295221534</v>
+        <v>0.05954402481836934</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2708588955.322919</v>
+        <v>1987950945.034106</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1515352084321161</v>
+        <v>0.1390289965381256</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04621398150570743</v>
+        <v>0.0435500374405728</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,16 +1913,25 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2926596342.989377</v>
+        <v>3949467932.679671</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08165301481729324</v>
+        <v>0.08453824751132774</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03906999136663839</v>
+        <v>0.02931526773945345</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>205</v>
+      </c>
+      <c r="J42" t="n">
+        <v>470</v>
+      </c>
+      <c r="K42" t="n">
+        <v>37.8119610942084</v>
       </c>
     </row>
     <row r="43">
@@ -1634,17 +1950,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2492860787.268339</v>
+        <v>2459498246.624698</v>
       </c>
       <c r="F43" t="n">
-        <v>0.18089981612318</v>
+        <v>0.1781804157488809</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02502071064018967</v>
+        <v>0.02577000539965038</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1475074850.473991</v>
+        <v>2325093074.163081</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07610977035146224</v>
+        <v>0.07401139385249243</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03365775060353602</v>
+        <v>0.0287506072004683</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2314360764.358908</v>
+        <v>1867301668.949308</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1377593347526888</v>
+        <v>0.1339124322808189</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0547969695613646</v>
+        <v>0.04937267092545847</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2049,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5666676709.09205</v>
+        <v>3556447480.77204</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1141401334571744</v>
+        <v>0.1080310654580809</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03783496280780876</v>
+        <v>0.05331294666564621</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>278</v>
+      </c>
+      <c r="J46" t="n">
+        <v>469</v>
+      </c>
+      <c r="K46" t="n">
+        <v>30.0347191636072</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2086,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3908250731.550979</v>
+        <v>3478345598.173101</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1812068937172379</v>
+        <v>0.1969282426637572</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03860614008541142</v>
+        <v>0.04947511083546428</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>212</v>
+      </c>
+      <c r="J47" t="n">
+        <v>468</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,16 +2127,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4474856147.786557</v>
+        <v>3575783047.842981</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08574854730783665</v>
+        <v>0.06724429724248879</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03412156512554796</v>
+        <v>0.03443976167561787</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>235</v>
+      </c>
+      <c r="J48" t="n">
+        <v>470</v>
+      </c>
+      <c r="K48" t="n">
+        <v>34.1618307517166</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1269316593.506001</v>
+        <v>1253573325.111087</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1696559058272791</v>
+        <v>0.1509418912187791</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03119269577384576</v>
+        <v>0.04286183913187135</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2193,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2566609964.952412</v>
+        <v>2852355390.495227</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1249685547300943</v>
+        <v>0.1404154965222792</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05101142413830587</v>
+        <v>0.05259031148969898</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>168</v>
+      </c>
+      <c r="J50" t="n">
+        <v>467</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1418076661.026586</v>
+        <v>1227706282.522953</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1194287048434167</v>
+        <v>0.1391303000021487</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03946850954011351</v>
+        <v>0.03955222231785378</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2263,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5296592892.419798</v>
+        <v>4014406721.727184</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08929189315183336</v>
+        <v>0.1224964739622783</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04909046556511769</v>
+        <v>0.05563666201248374</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>265</v>
+      </c>
+      <c r="J52" t="n">
+        <v>470</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1914,16 +2304,25 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3636272088.868379</v>
+        <v>2746995957.808909</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1927459163193433</v>
+        <v>0.1585254499732263</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0312607754315538</v>
+        <v>0.02510029556806463</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>72</v>
+      </c>
+      <c r="J53" t="n">
+        <v>470</v>
+      </c>
+      <c r="K53" t="n">
+        <v>34.33690397273269</v>
       </c>
     </row>
     <row r="54">
@@ -1936,23 +2335,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4926030722.122323</v>
+        <v>4572557550.112366</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1249890619444077</v>
+        <v>0.1073734787603726</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04172866785511761</v>
+        <v>0.03852138891133438</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>248</v>
+      </c>
+      <c r="J54" t="n">
+        <v>470</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2370,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4623468410.724461</v>
+        <v>3587752828.697553</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1963058108743568</v>
+        <v>0.2078125065029371</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03200740843958064</v>
+        <v>0.02124799669733006</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>232</v>
+      </c>
+      <c r="J55" t="n">
+        <v>469</v>
+      </c>
+      <c r="K55" t="n">
+        <v>33.74969568969644</v>
       </c>
     </row>
     <row r="56">
@@ -1998,17 +2413,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1147545625.146422</v>
+        <v>1443151424.596206</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1575786056622045</v>
+        <v>0.1568496366576452</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04706176403513439</v>
+        <v>0.05757062809119401</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,16 +2448,25 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2970967694.037745</v>
+        <v>3450723324.763517</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1435493131531544</v>
+        <v>0.1570030420975417</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02341481679173245</v>
+        <v>0.0262822105082809</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>202</v>
+      </c>
+      <c r="J57" t="n">
+        <v>469</v>
+      </c>
+      <c r="K57" t="n">
+        <v>31.68194974007555</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2479,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1276095006.560662</v>
+        <v>1372845450.852574</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1418142194741388</v>
+        <v>0.200387503046618</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03789605788392351</v>
+        <v>0.0350702544406376</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2520,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3443970642.784803</v>
+        <v>5155509770.249573</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1146555822710412</v>
+        <v>0.1050745498375261</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03085344221771006</v>
+        <v>0.04398774680920467</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>230</v>
+      </c>
+      <c r="J59" t="n">
+        <v>470</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2905315075.95502</v>
+        <v>3203176333.318273</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1678169491293983</v>
+        <v>0.1322298358503508</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02669132104101023</v>
+        <v>0.03320506602661386</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>91</v>
+      </c>
+      <c r="J60" t="n">
+        <v>465</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2923119569.094996</v>
+        <v>2367238655.989599</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1553324811746892</v>
+        <v>0.1097240500412105</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02112591121427917</v>
+        <v>0.02806588202560388</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1617823150.980536</v>
+        <v>2023785622.239829</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1884040943891836</v>
+        <v>0.1944718399333024</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04920703525552899</v>
+        <v>0.04172457119191118</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2660,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5449305655.319275</v>
+        <v>5342827257.441236</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08574223193858201</v>
+        <v>0.1004265608065296</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03969225740617593</v>
+        <v>0.0357143097125075</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>235</v>
+      </c>
+      <c r="J63" t="n">
+        <v>470</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2689,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4246360412.553589</v>
+        <v>3447800412.843476</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1487559583984734</v>
+        <v>0.1796990498422708</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03366133934084151</v>
+        <v>0.02412732113335578</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>235</v>
+      </c>
+      <c r="J64" t="n">
+        <v>468</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3649781405.386568</v>
+        <v>5417335812.703141</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1187555086131639</v>
+        <v>0.1703546843165524</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02680440211744554</v>
+        <v>0.02755085697082399</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>333</v>
+      </c>
+      <c r="J65" t="n">
+        <v>469</v>
+      </c>
+      <c r="K65" t="n">
+        <v>28.66906504411033</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2761,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5590946076.4721</v>
+        <v>3820182022.720199</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1429779861707279</v>
+        <v>0.1441473205968077</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03988181867483401</v>
+        <v>0.05105202394319453</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>232</v>
+      </c>
+      <c r="J66" t="n">
+        <v>469</v>
+      </c>
+      <c r="K66" t="n">
+        <v>30.1016811043549</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3362425168.946767</v>
+        <v>2717830586.604532</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09197570363367946</v>
+        <v>0.08582060719059773</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03604637131264704</v>
+        <v>0.03889036939682075</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>14</v>
+      </c>
+      <c r="J67" t="n">
+        <v>456</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2833,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4060990333.703561</v>
+        <v>5364271481.099282</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1086880607386304</v>
+        <v>0.1281800809177579</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04967578816222962</v>
+        <v>0.03953908574424109</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>256</v>
+      </c>
+      <c r="J68" t="n">
+        <v>469</v>
+      </c>
+      <c r="K68" t="n">
+        <v>30.73859078224687</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1865860016.86325</v>
+        <v>2459850706.754456</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1813259982253563</v>
+        <v>0.1134213278967894</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05791606644227605</v>
+        <v>0.03929826651933153</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2905,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3464300525.678617</v>
+        <v>3280396302.981094</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08505409410029084</v>
+        <v>0.0792912487980533</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03143988436772462</v>
+        <v>0.04228303972879957</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>71</v>
+      </c>
+      <c r="J70" t="n">
+        <v>468</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2940,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4960248471.194674</v>
+        <v>4698726459.436001</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1321736944444135</v>
+        <v>0.115942519461558</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02964455265560552</v>
+        <v>0.02304328521838759</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>319</v>
+      </c>
+      <c r="J71" t="n">
+        <v>469</v>
+      </c>
+      <c r="K71" t="n">
+        <v>30.54932306320502</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2201769742.774834</v>
+        <v>1934178324.744251</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06799792323066589</v>
+        <v>0.08901314111570437</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05169178004052847</v>
+        <v>0.0483422080217563</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,22 +3012,31 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2374749582.291078</v>
+        <v>3430099199.083775</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09988818945971116</v>
+        <v>0.08821959527584096</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04036333237096127</v>
+        <v>0.0437592948265114</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>40</v>
+      </c>
+      <c r="J73" t="n">
+        <v>470</v>
+      </c>
+      <c r="K73" t="n">
+        <v>68.36639028059996</v>
       </c>
     </row>
     <row r="74">
@@ -2502,17 +3055,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2575839529.238366</v>
+        <v>3578255357.431861</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1818517680966134</v>
+        <v>0.1674051542959059</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0293934043852302</v>
+        <v>0.02544104165783005</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>137</v>
+      </c>
+      <c r="J74" t="n">
+        <v>470</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3090,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2153543653.21972</v>
+        <v>2411565201.961874</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1273446038791059</v>
+        <v>0.1417264621926782</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02486284385407982</v>
+        <v>0.0281214012849848</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3119,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3355210769.97508</v>
+        <v>4434241321.460579</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08904945252828697</v>
+        <v>0.08055503616133614</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02882637654065661</v>
+        <v>0.03399928547140156</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>224</v>
+      </c>
+      <c r="J76" t="n">
+        <v>470</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2225858043.43319</v>
+        <v>1696202354.788085</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1692447595909141</v>
+        <v>0.1176429188934007</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02974956656086555</v>
+        <v>0.02667632823378173</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3189,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3654309060.525585</v>
+        <v>4803200923.354681</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1324966006819994</v>
+        <v>0.1134613758325948</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05086596651372709</v>
+        <v>0.04972758307276607</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>233</v>
+      </c>
+      <c r="J78" t="n">
+        <v>470</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1333794184.693072</v>
+        <v>1403903448.935855</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1403037216180975</v>
+        <v>0.1484564272235275</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02720741886443032</v>
+        <v>0.03882955289370424</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5253926854.511578</v>
+        <v>5597968004.950057</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07235814054766623</v>
+        <v>0.08007542060364853</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02980821337694264</v>
+        <v>0.03484249722264812</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>229</v>
+      </c>
+      <c r="J80" t="n">
+        <v>470</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4823112804.45593</v>
+        <v>5018054359.590575</v>
       </c>
       <c r="F81" t="n">
-        <v>0.129724616978132</v>
+        <v>0.08963447320965848</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02746720533165582</v>
+        <v>0.03002145492381922</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>218</v>
+      </c>
+      <c r="J81" t="n">
+        <v>470</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,16 +3335,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5553880161.557717</v>
+        <v>5019571684.936384</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2157740710052724</v>
+        <v>0.1310082529379366</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02513875923928243</v>
+        <v>0.01939169942296512</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>311</v>
+      </c>
+      <c r="J82" t="n">
+        <v>469</v>
+      </c>
+      <c r="K82" t="n">
+        <v>31.46382485338142</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1595618315.565268</v>
+        <v>1865084342.07892</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1245631274815963</v>
+        <v>0.1131505800020302</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03040540497370029</v>
+        <v>0.0380724743501673</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2323996600.635163</v>
+        <v>1709114741.484653</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08617123406506254</v>
+        <v>0.1211998230062575</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04591788868957934</v>
+        <v>0.04694576220588821</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3415043750.381091</v>
+        <v>2357248325.6803</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1591848584704935</v>
+        <v>0.174421135073444</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03978279398926551</v>
+        <v>0.0551935422191714</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>65</v>
+      </c>
+      <c r="J85" t="n">
+        <v>452</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2174614502.698241</v>
+        <v>2671574354.437411</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1560509850407983</v>
+        <v>0.1354807925156047</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02283133939304581</v>
+        <v>0.02059153771911308</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>929708531.1908923</v>
+        <v>1144684196.191158</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1595197188396567</v>
+        <v>0.1686455480752063</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03401765064194839</v>
+        <v>0.02705187637921199</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2951839491.530576</v>
+        <v>3703791395.612905</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1774163265989484</v>
+        <v>0.1235238195134911</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02985954603472809</v>
+        <v>0.02885083520333614</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>61</v>
+      </c>
+      <c r="J88" t="n">
+        <v>470</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2213249399.473311</v>
+        <v>2276460376.508244</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1470453331361826</v>
+        <v>0.1236954303392081</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03982550140394205</v>
+        <v>0.03218214677533248</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>27</v>
+      </c>
+      <c r="J89" t="n">
+        <v>466</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3617,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2147189574.581704</v>
+        <v>1673371651.45505</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1031560295604047</v>
+        <v>0.1191246714616205</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03467347834952457</v>
+        <v>0.04932391236030732</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1589088390.775019</v>
+        <v>1790785288.408757</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1340166256799657</v>
+        <v>0.1617915096041343</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04645257047915684</v>
+        <v>0.05294487331522591</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2627916145.067681</v>
+        <v>1974287311.506491</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08467044000630737</v>
+        <v>0.0763656377839461</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04389974212338368</v>
+        <v>0.02995988072415654</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,17 +3722,24 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3901401264.04674</v>
+        <v>4473676266.810095</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1250850846252038</v>
+        <v>0.133095166186213</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0427550457831725</v>
+        <v>0.04987519614765301</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>225</v>
+      </c>
+      <c r="J93" t="n">
+        <v>470</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2118254016.461306</v>
+        <v>2468154630.878645</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1662019745770705</v>
+        <v>0.1172923758983258</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03452301796702865</v>
+        <v>0.03518317076967451</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2085088784.317438</v>
+        <v>3272556572.489358</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1037448537343818</v>
+        <v>0.106059195713612</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0405548253202736</v>
+        <v>0.05138929811628007</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2293105401.461935</v>
+        <v>1852830239.361289</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1367831816177944</v>
+        <v>0.1130484543349342</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0354003520372808</v>
+        <v>0.03147672378275294</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3862,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5314236049.214063</v>
+        <v>3417420786.885345</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1427706628378531</v>
+        <v>0.1574786877885031</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01780043803864585</v>
+        <v>0.02878983605474964</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>245</v>
+      </c>
+      <c r="J97" t="n">
+        <v>469</v>
+      </c>
+      <c r="K97" t="n">
+        <v>27.35059305467539</v>
       </c>
     </row>
     <row r="98">
@@ -3174,17 +3899,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3953583745.922693</v>
+        <v>2377762520.885535</v>
       </c>
       <c r="F98" t="n">
-        <v>0.122686935872126</v>
+        <v>0.1023190786607205</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02037536461729792</v>
+        <v>0.02940093021639127</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>117</v>
+      </c>
+      <c r="J98" t="n">
+        <v>464</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3435081937.558402</v>
+        <v>2839131673.617071</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1057372478291339</v>
+        <v>0.1022336359744549</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03502803316598543</v>
+        <v>0.03452674421494038</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,16 +3969,25 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3101793253.323327</v>
+        <v>3689765446.272318</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1306536482286853</v>
+        <v>0.1180909305153329</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02640187571505143</v>
+        <v>0.02080964576952429</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>220</v>
+      </c>
+      <c r="J100" t="n">
+        <v>469</v>
+      </c>
+      <c r="K100" t="n">
+        <v>31.66704640522143</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2834714401.91017</v>
+        <v>3279843734.883078</v>
       </c>
       <c r="F101" t="n">
-        <v>0.188467702077683</v>
+        <v>0.1388329661513015</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04998408123402988</v>
+        <v>0.04686172163408804</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>46</v>
+      </c>
+      <c r="J101" t="n">
+        <v>445</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
